--- a/biology/Botanique/Lauterb/Lauterb..xlsx
+++ b/biology/Botanique/Lauterb/Lauterb..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl (ou Carl) Adolf Georg Lauterbach, né le 21 avril 1864 à Breslau et mort le 1er septembre 1937 à Breslau (dans le quartier de Stabelwitz), est un géographe, naturaliste et botaniste allemand qui explora l'actuelle Papouasie-Nouvelle-Guinée.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lauterbach poursuit des études de botanique et d'agronomie à Breslau et à Heidelberg, dont il est promu en 1888. Il se marie en 1892.
 Il entreprend un tour du monde entre 1889 et 1891 qui le mène des États-Unis à Hawaï, puis en Nouvelle-Zélande et en Australie, ensuite à Java. Il arrive en Nouvelle-Guinée en mars 1890 où il aborde à la colonie allemande de la Terre de l'Empereur-Guillaume. Il part ensuite de Finschhafen pour participer à une expédition de la baie de l'Astrolabe, puis vers la vallée Gogol.
@@ -546,7 +560,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1891. Eine Expedition zur Erforschung des Hinterlandes des Astrolabe Bai, Nachr. Kais. Wilh. Land 7, 1891, pp. 31–62.
 1898. Die geographischen Ergebnisse der Kaiser Wilhelmsland Expedition, Zeitschr. Ges. Erdk. Berl. 33, pp. 141–177 + 2 cartes
@@ -580,7 +596,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Genres
 (Monimiaceae) Lauterbachia Perk.</t>
